--- a/testData/SFI_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFI_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -397,6 +397,34 @@
   <si>
     <t>date_range
 Appointment Date : 22/01/2024, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>date_range
+Appointment Date : 23/01/2024, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>date_range
+Appointment Date : 23/01/2024, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>voice_record_23012024</t>
+  </si>
+  <si>
+    <t>formshow_23012024</t>
+  </si>
+  <si>
+    <t>date_range
+Appointment Date : 23/01/2024, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>date_range
+Appointment Date : 24/01/2024, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>voice_record_24012024</t>
+  </si>
+  <si>
+    <t>formshow_24012024</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>51</v>
@@ -1063,7 +1091,7 @@
         <v>61</v>
       </c>
       <c r="AR2" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AS2" t="s" s="0">
         <v>57</v>
@@ -1072,7 +1100,7 @@
         <v>65</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>74</v>
